--- a/_CONCAT_DOWNER_TeAra.xlsx
+++ b/_CONCAT_DOWNER_TeAra.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF2D0F7-5C4A-41C1-B282-05367006A141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D442E2C0-19B7-41BF-9536-3632CC70C791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8520" yWindow="1035" windowWidth="29280" windowHeight="19920" xr2:uid="{9D717462-EC9A-4D8E-92EA-87391A4D97B1}"/>
+    <workbookView xWindow="405" yWindow="360" windowWidth="29040" windowHeight="19785" xr2:uid="{9D717462-EC9A-4D8E-92EA-87391A4D97B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -58,61 +58,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>As-Built</t>
-  </si>
-  <si>
-    <t>IFC Drawings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Survey/as-builts </t>
-  </si>
-  <si>
-    <t>Survey final position and top R.L. of each pile, produce As-Built drawings including stated measurements of pile lengths; record bedrock level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Each Pile_x000D_
-</t>
-  </si>
-  <si>
-    <t>Pile tolerance is to be:_x000D_
--	75mm horizontally of the location as shown in the drawings_x000D_
--	Vertical location of the pile top at plus 40mm or minus 75mm of the position shown in the drawings_x000D_
--	Pile verticality of 1H:75V or straighter</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>Red-Line As-built</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>Draewings updated to reflect any changes during construction_x000D_
-Any RFI's and NCR's noted on drawings and closed out prior to drawing re-issue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On Completion of Works_x000D_
-</t>
-  </si>
-  <si>
-    <t>Accepted by CPS Manager &amp; Quality Manger</t>
-  </si>
-  <si>
-    <t>Red-Line As-Built</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,8 +71,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -140,8 +129,31 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -149,20 +161,243 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{049A0A55-E5C3-4443-B124-94A46B36D343}"/>
+    <cellStyle name="Normal_ITP_160070-101" xfId="2" xr:uid="{E910BA13-730A-49CA-B2A3-3CECCDC1C167}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -474,40 +709,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9569D8B-2D3C-4734-8A88-E4228D8D8D71}">
-  <dimension ref="A1:W15"/>
+  <dimension ref="A1:AI34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" customWidth="1"/>
-    <col min="6" max="6" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" customWidth="1"/>
-    <col min="9" max="9" width="5.85546875" customWidth="1"/>
-    <col min="10" max="10" width="4.140625" customWidth="1"/>
-    <col min="11" max="11" width="3.85546875" customWidth="1"/>
-    <col min="12" max="12" width="5.7109375" customWidth="1"/>
-    <col min="13" max="13" width="5" customWidth="1"/>
-    <col min="14" max="14" width="16" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" customWidth="1"/>
-    <col min="16" max="16" width="8.28515625" customWidth="1"/>
-    <col min="17" max="17" width="10.140625" customWidth="1"/>
-    <col min="18" max="18" width="10" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" customWidth="1"/>
-    <col min="20" max="20" width="7.42578125" customWidth="1"/>
-    <col min="21" max="21" width="11.5703125" customWidth="1"/>
-    <col min="22" max="22" width="21.42578125" customWidth="1"/>
-    <col min="23" max="23" width="90" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" customWidth="1"/>
+    <col min="4" max="4" width="2.85546875" customWidth="1"/>
+    <col min="5" max="5" width="1.85546875" customWidth="1"/>
+    <col min="6" max="6" width="3" customWidth="1"/>
+    <col min="7" max="7" width="5" customWidth="1"/>
+    <col min="8" max="8" width="2.85546875" customWidth="1"/>
+    <col min="9" max="9" width="2" customWidth="1"/>
+    <col min="10" max="10" width="5.140625" customWidth="1"/>
+    <col min="11" max="11" width="4.28515625" customWidth="1"/>
+    <col min="12" max="12" width="5.140625" customWidth="1"/>
+    <col min="13" max="13" width="2.42578125" customWidth="1"/>
+    <col min="14" max="15" width="2.5703125" customWidth="1"/>
+    <col min="16" max="16" width="2.42578125" customWidth="1"/>
+    <col min="17" max="19" width="5" customWidth="1"/>
+    <col min="20" max="20" width="4.140625" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125" customWidth="1"/>
+    <col min="22" max="22" width="8.28515625" customWidth="1"/>
+    <col min="23" max="23" width="10.140625" customWidth="1"/>
+    <col min="24" max="24" width="10" customWidth="1"/>
+    <col min="25" max="25" width="7.7109375" customWidth="1"/>
+    <col min="26" max="26" width="7.42578125" customWidth="1"/>
+    <col min="27" max="27" width="11.5703125" customWidth="1"/>
+    <col min="28" max="28" width="9.42578125" customWidth="1"/>
+    <col min="29" max="29" width="11.28515625" customWidth="1"/>
+    <col min="35" max="35" width="60.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="15" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -521,233 +760,806 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
       <c r="U1" s="3"/>
-    </row>
-    <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>3.1</v>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="21"/>
+      <c r="AI1" s="21"/>
+    </row>
+    <row r="2" spans="1:35" ht="15" customHeight="1">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="U2" t="str">
+        <f>A2&amp;" - "&amp;B2</f>
+        <v xml:space="preserve"> - </v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
+      <c r="V2" t="str">
+        <f>"Method/Description - "&amp;G2</f>
+        <v xml:space="preserve">Method/Description - </v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
+      <c r="W2" t="str">
+        <f>"Test frequency - "&amp;H2</f>
+        <v xml:space="preserve">Test frequency - </v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
+      <c r="X2" t="str">
+        <f>"Contractor - "&amp;K2</f>
+        <v xml:space="preserve">Contractor - </v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>5</v>
+      <c r="Y2" t="str">
+        <f>"Designer - "&amp;L2</f>
+        <v xml:space="preserve">Designer - </v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>6</v>
+      <c r="Z2" t="str">
+        <f>"Client - "&amp;M2</f>
+        <v xml:space="preserve">Client - </v>
       </c>
-      <c r="J2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" t="str">
-        <f>A2&amp;" - "&amp;B2</f>
-        <v xml:space="preserve">3.1 - Survey/as-builts </v>
-      </c>
-      <c r="P2" t="str">
-        <f>"Method/Description - "&amp;F2</f>
-        <v>Method/Description - Survey final position and top R.L. of each pile, produce As-Built drawings including stated measurements of pile lengths; record bedrock level</v>
-      </c>
-      <c r="Q2" t="str">
-        <f>"Test frequency - "&amp;G2</f>
-        <v xml:space="preserve">Test frequency - Each Pile_x000D_
-</v>
-      </c>
-      <c r="R2" t="str">
-        <f>"Contractor - "&amp;J2</f>
-        <v>Contractor - H</v>
-      </c>
-      <c r="S2" t="str">
-        <f>"Designer - "&amp;K2</f>
-        <v>Designer - R</v>
-      </c>
-      <c r="T2" t="str">
-        <f>"Lab - "&amp;L2</f>
+      <c r="AA2" t="str">
+        <f>"Lab - "&amp;N2</f>
         <v xml:space="preserve">Lab - </v>
       </c>
-      <c r="U2" t="str">
-        <f>"Verifying Records Checklists, Test and Supplier Certificates - "&amp;M2</f>
-        <v>Verifying Records Checklists, Test and Supplier Certificates - As-Built</v>
+      <c r="AB2" t="str">
+        <f>"Verifying Records Checklists, Test and Supplier Certificates - "&amp;O2</f>
+        <v xml:space="preserve">Verifying Records Checklists, Test and Supplier Certificates - </v>
       </c>
-      <c r="W2" t="str" cm="1">
-        <f t="array" ref="W2:W15">_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;_xlfn.TEXTJOIN("&lt;/s&gt;&lt;s&gt;",,O2:U40)&amp;"&lt;/s&gt;&lt;/t&gt;","//s")</f>
-        <v>3.1 - Survey/as-builts</v>
+      <c r="AI2" t="str" cm="1">
+        <f t="array" ref="AI2:AI9">_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;_xlfn.TEXTJOIN("&lt;/s&gt;&lt;s&gt;",,U2:AB40)&amp;"&lt;/s&gt;&lt;/t&gt;","//s")</f>
+        <v>-</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3.2</v>
+    <row r="3" spans="1:35" ht="15" customHeight="1">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="AI3" t="str">
+        <v>Method/Description -</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
+    </row>
+    <row r="4" spans="1:35" ht="15" customHeight="1">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="AI4" t="str">
+        <v>Test frequency -</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
+    </row>
+    <row r="5" spans="1:35" ht="15" customHeight="1">
+      <c r="A5" s="19"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="18"/>
+      <c r="AI5" t="str">
+        <v>Contractor -</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" t="str">
-        <f t="shared" ref="O3:O12" si="0">A3&amp;" - "&amp;B3</f>
-        <v>3.2 - Red-Line As-built</v>
-      </c>
-      <c r="P3" t="str">
-        <f t="shared" ref="P3:P12" si="1">"Method/Description - "&amp;F3</f>
-        <v>Method/Description - Draewings updated to reflect any changes during construction_x000D_
-Any RFI's and NCR's noted on drawings and closed out prior to drawing re-issue</v>
-      </c>
-      <c r="Q3" t="str">
-        <f t="shared" ref="Q3:Q12" si="2">"Test frequency - "&amp;G3</f>
-        <v xml:space="preserve">Test frequency - On Completion of Works_x000D_
-</v>
-      </c>
-      <c r="R3" t="str">
-        <f t="shared" ref="R3:R12" si="3">"Contractor - "&amp;J3</f>
-        <v>Contractor - H</v>
-      </c>
-      <c r="S3" t="str">
-        <f t="shared" ref="S3:S12" si="4">"Designer - "&amp;K3</f>
-        <v>Designer - R</v>
-      </c>
-      <c r="T3" t="str">
-        <f t="shared" ref="T3:T12" si="5">"Lab - "&amp;L3</f>
-        <v xml:space="preserve">Lab - </v>
-      </c>
-      <c r="U3" t="str">
-        <f t="shared" ref="U3:U12" si="6">"Verifying Records Checklists, Test and Supplier Certificates - "&amp;M3</f>
-        <v>Verifying Records Checklists, Test and Supplier Certificates - Red-Line As-Built</v>
-      </c>
-      <c r="W3" t="str">
-        <v>Method/Description - Survey final position and top R.L. of each pile, produce As-Built drawings including stated measurements of pile lengths; record bedrock level</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="W4" t="str">
-        <v>Test frequency - Each Pile</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="W5" t="str">
-        <v>Contractor - H</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:35" ht="15" customHeight="1">
+      <c r="B6" s="41"/>
       <c r="C6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="W6" t="str">
-        <v>Designer - R</v>
+      <c r="AI6" t="str">
+        <v>Designer -</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="W7" t="str">
+    <row r="7" spans="1:35" ht="15" customHeight="1">
+      <c r="A7" s="19"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="18"/>
+      <c r="AI7" t="str">
+        <v>Client -</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" ht="15" customHeight="1">
+      <c r="A8" s="19"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="18"/>
+      <c r="AI8" t="str">
         <v>Lab -</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="W8" t="str">
-        <v>Verifying Records Checklists, Test and Supplier Certificates - As-Built</v>
+    <row r="9" spans="1:35" ht="15" customHeight="1">
+      <c r="A9" s="19"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="18"/>
+      <c r="AI9" t="str">
+        <v>Verifying Records Checklists, Test and Supplier Certificates -</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="W9" t="str">
-        <v>3.2 - Red-Line As-built</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="W10" t="str">
-        <v>Method/Description - Draewings updated to reflect any changes during construction
-Any RFI's and NCR's noted on drawings and closed out prior to drawing re-issue</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="W11" t="str">
-        <v>Test frequency - On Completion of Works</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="W12" t="str">
-        <v>Contractor - H</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W13" t="str">
-        <v>Designer - R</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W14" t="str">
-        <v>Lab -</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W15" t="str">
-        <v>Verifying Records Checklists, Test and Supplier Certificates - Red-Line As-Built</v>
-      </c>
+    <row r="10" spans="1:35" ht="15" customHeight="1">
+      <c r="A10" s="19"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="18"/>
+    </row>
+    <row r="11" spans="1:35" ht="15" customHeight="1">
+      <c r="A11" s="19"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="18"/>
+    </row>
+    <row r="12" spans="1:35" ht="15" customHeight="1">
+      <c r="A12" s="19"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+    </row>
+    <row r="13" spans="1:35" ht="15" customHeight="1">
+      <c r="A13" s="19"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+    </row>
+    <row r="14" spans="1:35" ht="15" customHeight="1">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+    </row>
+    <row r="15" spans="1:35" ht="15" customHeight="1">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+    </row>
+    <row r="16" spans="1:35" ht="15" customHeight="1">
+      <c r="A16" s="19"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+    </row>
+    <row r="17" spans="1:16" ht="15" customHeight="1">
+      <c r="A17" s="19"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+    </row>
+    <row r="18" spans="1:16" ht="15" customHeight="1">
+      <c r="A18" s="19"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+    </row>
+    <row r="19" spans="1:16" ht="15" customHeight="1">
+      <c r="A19" s="19"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+    </row>
+    <row r="20" spans="1:16" ht="15" customHeight="1">
+      <c r="A20" s="19"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+    </row>
+    <row r="21" spans="1:16" ht="15" customHeight="1">
+      <c r="A21" s="19"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+    </row>
+    <row r="22" spans="1:16" ht="15" customHeight="1">
+      <c r="A22" s="19"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+    </row>
+    <row r="23" spans="1:16" ht="15" customHeight="1">
+      <c r="A23" s="19"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+    </row>
+    <row r="24" spans="1:16" ht="15" customHeight="1">
+      <c r="A24" s="19"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+    </row>
+    <row r="25" spans="1:16" ht="15" customHeight="1">
+      <c r="A25" s="19"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+    </row>
+    <row r="26" spans="1:16" ht="15" customHeight="1">
+      <c r="A26" s="19"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="18"/>
+    </row>
+    <row r="27" spans="1:16" ht="15" customHeight="1">
+      <c r="A27" s="19"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="18"/>
+    </row>
+    <row r="28" spans="1:16" ht="15" customHeight="1">
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+    </row>
+    <row r="29" spans="1:16" ht="15" customHeight="1">
+      <c r="A29" s="19"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
+    </row>
+    <row r="30" spans="1:16" ht="15" customHeight="1">
+      <c r="A30" s="32"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="34"/>
+    </row>
+    <row r="31" spans="1:16" ht="15" customHeight="1">
+      <c r="A31" s="32"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="34"/>
+    </row>
+    <row r="32" spans="1:16" ht="15" customHeight="1">
+      <c r="A32" s="32"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="34"/>
+    </row>
+    <row r="33" spans="1:16" ht="15" customHeight="1">
+      <c r="A33" s="32"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="34"/>
+    </row>
+    <row r="34" spans="1:16" ht="15" customHeight="1">
+      <c r="A34" s="32"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="34"/>
     </row>
   </sheetData>
+  <mergeCells count="128">
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/_CONCAT_DOWNER_TeAra.xlsx
+++ b/_CONCAT_DOWNER_TeAra.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D442E2C0-19B7-41BF-9536-3632CC70C791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98277031-0CC8-4844-9844-02EA9C29DAA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="405" yWindow="360" windowWidth="29040" windowHeight="19785" xr2:uid="{9D717462-EC9A-4D8E-92EA-87391A4D97B1}"/>
+    <workbookView xWindow="930" yWindow="660" windowWidth="26730" windowHeight="18405" xr2:uid="{9D717462-EC9A-4D8E-92EA-87391A4D97B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -55,10 +55,6 @@
     </bk>
   </cellMetadata>
 </metadata>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -231,7 +227,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -244,9 +240,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -259,49 +252,30 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -311,9 +285,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -327,55 +298,22 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -391,6 +329,54 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -712,7 +698,7 @@
   <dimension ref="A1:AI34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -742,8 +728,12 @@
     <col min="26" max="26" width="7.42578125" customWidth="1"/>
     <col min="27" max="27" width="11.5703125" customWidth="1"/>
     <col min="28" max="28" width="9.42578125" customWidth="1"/>
-    <col min="29" max="29" width="11.28515625" customWidth="1"/>
-    <col min="35" max="35" width="60.140625" customWidth="1"/>
+    <col min="29" max="29" width="2.7109375" customWidth="1"/>
+    <col min="30" max="31" width="3" customWidth="1"/>
+    <col min="32" max="32" width="1.42578125" customWidth="1"/>
+    <col min="33" max="33" width="2.7109375" customWidth="1"/>
+    <col min="34" max="34" width="2" customWidth="1"/>
+    <col min="35" max="35" width="37.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="15" customHeight="1">
@@ -774,31 +764,24 @@
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
     </row>
     <row r="2" spans="1:35" ht="15" customHeight="1">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -840,22 +823,22 @@
       </c>
     </row>
     <row r="3" spans="1:35" ht="15" customHeight="1">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
@@ -864,22 +847,22 @@
       </c>
     </row>
     <row r="4" spans="1:35" ht="15" customHeight="1">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
@@ -888,28 +871,28 @@
       </c>
     </row>
     <row r="5" spans="1:35" ht="15" customHeight="1">
-      <c r="A5" s="19"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="18"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="43"/>
       <c r="AI5" t="str">
         <v>Contractor -</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="15" customHeight="1">
-      <c r="B6" s="41"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="1"/>
       <c r="F6" s="1"/>
       <c r="AI6" t="str">
@@ -917,649 +900,519 @@
       </c>
     </row>
     <row r="7" spans="1:35" ht="15" customHeight="1">
-      <c r="A7" s="19"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="18"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="43"/>
       <c r="AI7" t="str">
         <v>Client -</v>
       </c>
     </row>
     <row r="8" spans="1:35" ht="15" customHeight="1">
-      <c r="A8" s="19"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="18"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="43"/>
       <c r="AI8" t="str">
         <v>Lab -</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="15" customHeight="1">
-      <c r="A9" s="19"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="18"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="43"/>
       <c r="AI9" t="str">
         <v>Verifying Records Checklists, Test and Supplier Certificates -</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="15" customHeight="1">
-      <c r="A10" s="19"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="18"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="43"/>
     </row>
     <row r="11" spans="1:35" ht="15" customHeight="1">
-      <c r="A11" s="19"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="18"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="43"/>
     </row>
     <row r="12" spans="1:35" ht="15" customHeight="1">
-      <c r="A12" s="19"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
     </row>
     <row r="13" spans="1:35" ht="15" customHeight="1">
-      <c r="A13" s="19"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
     </row>
     <row r="14" spans="1:35" ht="15" customHeight="1">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
     </row>
     <row r="15" spans="1:35" ht="15" customHeight="1">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
     </row>
     <row r="16" spans="1:35" ht="15" customHeight="1">
-      <c r="A16" s="19"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
     </row>
     <row r="17" spans="1:16" ht="15" customHeight="1">
-      <c r="A17" s="19"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
     </row>
     <row r="18" spans="1:16" ht="15" customHeight="1">
-      <c r="A18" s="19"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
     </row>
     <row r="19" spans="1:16" ht="15" customHeight="1">
-      <c r="A19" s="19"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
     </row>
     <row r="20" spans="1:16" ht="15" customHeight="1">
-      <c r="A20" s="19"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="50"/>
     </row>
     <row r="21" spans="1:16" ht="15" customHeight="1">
-      <c r="A21" s="19"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
     </row>
     <row r="22" spans="1:16" ht="15" customHeight="1">
-      <c r="A22" s="19"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
     </row>
     <row r="23" spans="1:16" ht="15" customHeight="1">
-      <c r="A23" s="19"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
     </row>
     <row r="24" spans="1:16" ht="15" customHeight="1">
-      <c r="A24" s="19"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
     </row>
     <row r="25" spans="1:16" ht="15" customHeight="1">
-      <c r="A25" s="19"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
     </row>
     <row r="26" spans="1:16" ht="15" customHeight="1">
-      <c r="A26" s="19"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="18"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="43"/>
     </row>
     <row r="27" spans="1:16" ht="15" customHeight="1">
-      <c r="A27" s="19"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="18"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="43"/>
     </row>
     <row r="28" spans="1:16" ht="15" customHeight="1">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="50"/>
     </row>
     <row r="29" spans="1:16" ht="15" customHeight="1">
-      <c r="A29" s="19"/>
+      <c r="A29" s="14"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="50"/>
     </row>
     <row r="30" spans="1:16" ht="15" customHeight="1">
-      <c r="A30" s="32"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="34"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="51"/>
     </row>
     <row r="31" spans="1:16" ht="15" customHeight="1">
-      <c r="A31" s="32"/>
-      <c r="B31" s="55"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="34"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="42"/>
+      <c r="P31" s="51"/>
     </row>
     <row r="32" spans="1:16" ht="15" customHeight="1">
-      <c r="A32" s="32"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="34"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="42"/>
+      <c r="P32" s="51"/>
     </row>
     <row r="33" spans="1:16" ht="15" customHeight="1">
-      <c r="A33" s="32"/>
-      <c r="B33" s="55"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="34"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="42"/>
+      <c r="P33" s="51"/>
     </row>
     <row r="34" spans="1:16" ht="15" customHeight="1">
-      <c r="A34" s="32"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="34"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="42"/>
+      <c r="P34" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="128">
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>